--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsClinicalDescriptionExtension</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsClinicalDescriptionExtension</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsClinicalDescriptionExtension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
